--- a/KMS_batch_backend/bin/Debug/Input.xlsx
+++ b/KMS_batch_backend/bin/Debug/Input.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>FullName</t>
   </si>
@@ -52,15 +52,27 @@
   </si>
   <si>
     <t>DZID</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>王德玉</t>
+  </si>
+  <si>
+    <t>37020319611025031X</t>
+  </si>
+  <si>
+    <t>黄俊龙</t>
+  </si>
+  <si>
+    <t>422822198807221014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,14 +115,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,16 +403,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="6" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -413,13 +428,13 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -433,10 +448,10 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="4">
@@ -450,14 +465,48 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="4">
         <v>30012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>327816381</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5">
+        <v>22579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>327816381</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5">
+        <v>22579</v>
       </c>
     </row>
   </sheetData>

--- a/KMS_batch_backend/bin/Debug/Input.xlsx
+++ b/KMS_batch_backend/bin/Debug/Input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A3A0C1-B333-4932-B153-6F948C316A25}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,65 +20,490 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>ShowPhoto</t>
-  </si>
-  <si>
-    <t>IDCardNo</t>
-  </si>
-  <si>
-    <t>DateOfBirth</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>金吉顺</t>
-  </si>
-  <si>
-    <t>210702196312160650</t>
-  </si>
-  <si>
-    <t>王振宇</t>
-  </si>
-  <si>
-    <t>510215198203022114</t>
-  </si>
-  <si>
-    <t>CustomerReference</t>
-  </si>
-  <si>
-    <t>DZID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
+  <si>
+    <t>S1 Enable with Chinese</t>
+  </si>
+  <si>
+    <t>陈</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOB </t>
+  </si>
+  <si>
+    <t>Client ID No.</t>
+  </si>
+  <si>
+    <t>李</t>
+  </si>
+  <si>
+    <t>刘</t>
+  </si>
+  <si>
+    <t>张</t>
+  </si>
+  <si>
+    <t>杨</t>
+  </si>
+  <si>
+    <t>徐</t>
+  </si>
+  <si>
+    <t>志强</t>
+  </si>
+  <si>
+    <t>王</t>
+  </si>
+  <si>
+    <t>370602197107012919</t>
+  </si>
+  <si>
+    <t>亚楠</t>
+  </si>
+  <si>
+    <t>412823198907094096</t>
+  </si>
+  <si>
+    <t>瑞贤</t>
+  </si>
+  <si>
+    <t>姚</t>
+  </si>
+  <si>
+    <t>120111199212040016</t>
+  </si>
+  <si>
+    <t>振华</t>
+  </si>
+  <si>
+    <t>412725198607084213</t>
+  </si>
+  <si>
+    <t>德强</t>
+  </si>
+  <si>
+    <t>魏</t>
+  </si>
+  <si>
+    <t>350102195708290113</t>
+  </si>
+  <si>
+    <t>金月</t>
+  </si>
+  <si>
+    <t>齐</t>
+  </si>
+  <si>
+    <t>220181198708123841</t>
+  </si>
+  <si>
+    <t>越</t>
+  </si>
+  <si>
+    <t>110103196505020945</t>
+  </si>
+  <si>
+    <t>会芳</t>
+  </si>
+  <si>
+    <t>120222196807216421</t>
+  </si>
+  <si>
+    <t>秀芹</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>120222195610253128</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>文</t>
+  </si>
+  <si>
+    <t>511621198612251049</t>
+  </si>
+  <si>
+    <t>泽刚</t>
+  </si>
+  <si>
+    <t>12022219610810675X</t>
+  </si>
+  <si>
+    <t>宝珠</t>
+  </si>
+  <si>
+    <t>120222198304306723</t>
+  </si>
+  <si>
+    <t>绪华</t>
+  </si>
+  <si>
+    <t>120222195503156779</t>
+  </si>
+  <si>
+    <t>志英</t>
+  </si>
+  <si>
+    <t>120222197605024821</t>
+  </si>
+  <si>
+    <t>元红</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>120222196011180822</t>
+  </si>
+  <si>
+    <t>俊英</t>
+  </si>
+  <si>
+    <t>万</t>
+  </si>
+  <si>
+    <t>120222196404104222</t>
+  </si>
+  <si>
+    <t>宝</t>
+  </si>
+  <si>
+    <t>120222198107076738</t>
+  </si>
+  <si>
+    <t>志新</t>
+  </si>
+  <si>
+    <t>120102195210210718</t>
+  </si>
+  <si>
+    <t>书运</t>
+  </si>
+  <si>
+    <t>120222195309212423</t>
+  </si>
+  <si>
+    <t>鼎</t>
+  </si>
+  <si>
+    <t>薛</t>
+  </si>
+  <si>
+    <t>130403198304303016</t>
+  </si>
+  <si>
+    <t>廷会</t>
+  </si>
+  <si>
+    <t>120222195705076726</t>
+  </si>
+  <si>
+    <t>希敏</t>
+  </si>
+  <si>
+    <t>120222195804290621</t>
+  </si>
+  <si>
+    <t>春华</t>
+  </si>
+  <si>
+    <t>120222197409101842</t>
+  </si>
+  <si>
+    <t>翠侠</t>
+  </si>
+  <si>
+    <t>闫</t>
+  </si>
+  <si>
+    <t>132201196603241627</t>
+  </si>
+  <si>
+    <t>帅</t>
+  </si>
+  <si>
+    <t>段</t>
+  </si>
+  <si>
+    <t>412726198802230817</t>
+  </si>
+  <si>
+    <t>青</t>
+  </si>
+  <si>
+    <t>421125198509093018</t>
+  </si>
+  <si>
+    <t>艳艳</t>
+  </si>
+  <si>
+    <t>赵</t>
+  </si>
+  <si>
+    <t>120225197910230065</t>
+  </si>
+  <si>
+    <t>丹</t>
+  </si>
+  <si>
+    <t>120106198005163026</t>
+  </si>
+  <si>
+    <t>桂华</t>
+  </si>
+  <si>
+    <t>120104195602040028</t>
+  </si>
+  <si>
+    <t>庆芝</t>
+  </si>
+  <si>
+    <t>耿</t>
+  </si>
+  <si>
+    <t>130705195009051229</t>
+  </si>
+  <si>
+    <t>连起</t>
+  </si>
+  <si>
+    <t>邢</t>
+  </si>
+  <si>
+    <t>120222195401280058</t>
+  </si>
+  <si>
+    <t>子涵</t>
+  </si>
+  <si>
+    <t>120101198808102567</t>
+  </si>
+  <si>
+    <t>国娟</t>
+  </si>
+  <si>
+    <t>谢</t>
+  </si>
+  <si>
+    <t>120222198212231648</t>
+  </si>
+  <si>
+    <t>维玲</t>
+  </si>
+  <si>
+    <t>安</t>
+  </si>
+  <si>
+    <t>120111197407133520</t>
+  </si>
+  <si>
+    <t>张晶</t>
+  </si>
+  <si>
+    <t>12010119660415151X</t>
+  </si>
+  <si>
+    <t>庆兰</t>
+  </si>
+  <si>
+    <t>120104195606152924</t>
+  </si>
+  <si>
+    <t>建伟</t>
+  </si>
+  <si>
+    <t>120104196901261255</t>
+  </si>
+  <si>
+    <t>学良</t>
+  </si>
+  <si>
+    <t>120222197911051852</t>
+  </si>
+  <si>
+    <t>盈露</t>
+  </si>
+  <si>
+    <t>邱</t>
+  </si>
+  <si>
+    <t>120101195711234025</t>
+  </si>
+  <si>
+    <t>玉龙</t>
+  </si>
+  <si>
+    <t>120111199410190533</t>
+  </si>
+  <si>
+    <t>忠霞</t>
+  </si>
+  <si>
+    <t>120222195202020042</t>
+  </si>
+  <si>
+    <t>凤斌</t>
+  </si>
+  <si>
+    <t>120111196504233035</t>
+  </si>
+  <si>
+    <t>东祥</t>
+  </si>
+  <si>
+    <t>120101196107025010</t>
+  </si>
+  <si>
+    <t>颖</t>
+  </si>
+  <si>
+    <t>120222198507241026</t>
+  </si>
+  <si>
+    <t>玉芳</t>
+  </si>
+  <si>
+    <t>230305196011185425</t>
+  </si>
+  <si>
+    <t>冬</t>
+  </si>
+  <si>
+    <t>孙</t>
+  </si>
+  <si>
+    <t>120105197701130913</t>
+  </si>
+  <si>
+    <t>克然</t>
+  </si>
+  <si>
+    <t>130105195102251548</t>
+  </si>
+  <si>
+    <t>120222198006274428</t>
+  </si>
+  <si>
+    <t>连进</t>
+  </si>
+  <si>
+    <t>120106197107140031</t>
+  </si>
+  <si>
+    <t>玉红</t>
+  </si>
+  <si>
+    <t>120225198301011881</t>
+  </si>
+  <si>
+    <t>铭辰</t>
+  </si>
+  <si>
+    <t>殷</t>
+  </si>
+  <si>
+    <t>130403199707121238</t>
+  </si>
+  <si>
+    <t>冬好</t>
+  </si>
+  <si>
+    <t>410322198508066834</t>
+  </si>
+  <si>
+    <t>景芬</t>
+  </si>
+  <si>
+    <t>唐</t>
+  </si>
+  <si>
+    <t>120223196812185021</t>
+  </si>
+  <si>
+    <t>巧玲</t>
+  </si>
+  <si>
+    <t>翟</t>
+  </si>
+  <si>
+    <t>120102198111211428</t>
+  </si>
+  <si>
+    <t>学云</t>
+  </si>
+  <si>
+    <t>鲁</t>
+  </si>
+  <si>
+    <t>12022219760512542X</t>
+  </si>
+  <si>
+    <t>岩</t>
+  </si>
+  <si>
+    <t>邹</t>
+  </si>
+  <si>
+    <t>120101196807175052</t>
+  </si>
+  <si>
+    <t>莉</t>
+  </si>
+  <si>
+    <t>120104197507034729</t>
+  </si>
+  <si>
+    <t>韬</t>
+  </si>
+  <si>
+    <t>120103198101033214</t>
+  </si>
+  <si>
+    <t>洋</t>
+  </si>
+  <si>
+    <t>120106198708103521</t>
+  </si>
+  <si>
+    <t>铱晗</t>
+  </si>
+  <si>
+    <t>13052119821227026X</t>
+  </si>
+  <si>
+    <t>文静</t>
+  </si>
+  <si>
+    <t>夏</t>
+  </si>
+  <si>
+    <t>120105198308150322</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,14 +529,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,74 +811,1258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="6" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>30376</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>26115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>30377</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>32698</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>30379</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>33942</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>30380</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>31601</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1101026</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1">
+        <v>21061</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>3200351</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1">
+        <v>32001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>3200383</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>23864</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>4005236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>25040</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>4005239</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20753</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>4005256</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1">
+        <v>31771</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>4005259</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E12" s="1">
+        <v>22503</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4005262</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>30436</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4005266</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>20163</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4005269</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>27882</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>4005272</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1">
+        <v>22238</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>4005276</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="1">
+        <v>23477</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>4005279</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>29774</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>4005282</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>19288</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>4005286</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1">
+        <v>19623</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>4005288</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1">
+        <v>30436</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>4005290</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20947</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>4005293</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1">
+        <v>21304</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>4005297</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1">
+        <v>27282</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>4005301</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="1">
+        <v>24190</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>4005305</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="1">
+        <v>32196</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>4005307</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1">
+        <v>31299</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>4005309</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="1">
+        <v>29151</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>4005311</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="1">
+        <v>29357</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>4005315</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E30" s="1">
+        <v>20489</v>
+      </c>
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>4005316</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="1">
+        <v>18511</v>
+      </c>
+      <c r="F31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>4005319</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="1">
+        <v>19752</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>4005322</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1">
+        <v>32365</v>
+      </c>
+      <c r="F33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>4005323</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="1">
+        <v>30308</v>
+      </c>
+      <c r="F34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>4005327</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="1">
+        <v>27223</v>
+      </c>
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>4005328</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1">
+        <v>24212</v>
+      </c>
+      <c r="F36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>4005333</v>
+      </c>
+      <c r="C37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1">
+        <v>20621</v>
+      </c>
+      <c r="F37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>4005335</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1">
+        <v>25229</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>4005338</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1">
+        <v>29164</v>
+      </c>
+      <c r="F39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>4005355</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="1">
+        <v>21147</v>
+      </c>
+      <c r="F40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>4005356</v>
+      </c>
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="1">
+        <v>34626</v>
+      </c>
+      <c r="F41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>4005357</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1">
+        <v>19026</v>
+      </c>
+      <c r="F42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>4005360</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1">
+        <v>23855</v>
+      </c>
+      <c r="F43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>4005361</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1236781</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4">
-        <v>23361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>38971231</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="E44" s="1">
+        <v>22464</v>
+      </c>
+      <c r="F44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>4005700</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="1">
+        <v>31252</v>
+      </c>
+      <c r="F45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>4005703</v>
+      </c>
+      <c r="C46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1">
+        <v>22238</v>
+      </c>
+      <c r="F46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>4005707</v>
+      </c>
+      <c r="C47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="1">
+        <v>28138</v>
+      </c>
+      <c r="F47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>4005712</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="1">
+        <v>18684</v>
+      </c>
+      <c r="F48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>4005713</v>
+      </c>
+      <c r="C49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="1">
+        <v>29399</v>
+      </c>
+      <c r="F49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>4005720</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="1">
+        <v>26128</v>
+      </c>
+      <c r="F50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>4005726</v>
+      </c>
+      <c r="C51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1">
+        <v>30317</v>
+      </c>
+      <c r="F51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>4005727</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="1">
+        <v>35623</v>
+      </c>
+      <c r="F52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>4005730</v>
+      </c>
+      <c r="C53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1">
+        <v>31265</v>
+      </c>
+      <c r="F53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>4005731</v>
+      </c>
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="1">
+        <v>25190</v>
+      </c>
+      <c r="F54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>4005732</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="1">
+        <v>29911</v>
+      </c>
+      <c r="F55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>4005733</v>
+      </c>
+      <c r="C56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" s="1">
+        <v>27892</v>
+      </c>
+      <c r="F56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>4005737</v>
+      </c>
+      <c r="C57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="1">
+        <v>25036</v>
+      </c>
+      <c r="F57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>4005738</v>
+      </c>
+      <c r="C58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4">
-        <v>30012</v>
+      <c r="E58" s="1">
+        <v>27578</v>
+      </c>
+      <c r="F58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>4005753</v>
+      </c>
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="1">
+        <v>29589</v>
+      </c>
+      <c r="F59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>4005757</v>
+      </c>
+      <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1">
+        <v>31999</v>
+      </c>
+      <c r="F60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>4005759</v>
+      </c>
+      <c r="C61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="1">
+        <v>30312</v>
+      </c>
+      <c r="F61" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>4005760</v>
+      </c>
+      <c r="C62" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="1">
+        <v>30543</v>
+      </c>
+      <c r="F62" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
